--- a/dds/operations.xlsx
+++ b/dds/operations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\dds\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8076" tabRatio="356" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="356"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -15,15 +20,15 @@
     <sheet name="Valid Values" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">ROOT!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">ROOT!$A$1:$H$1</definedName>
     <definedName name="A">ROOT!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="325">
   <si>
     <t>Identifier</t>
   </si>
@@ -38,27 +43,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Sample Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Input Widget</t>
-  </si>
-  <si>
-    <t>Output Widget</t>
   </si>
   <si>
     <t>Comments</t>
@@ -1014,12 +998,18 @@
   <si>
     <t>Energy Production per Year</t>
   </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1117,7 +1107,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,7 +1126,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1222,6 +1211,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1269,7 +1261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1304,7 +1296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1516,25 +1508,26 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:AMK77"/>
+  <dimension ref="A1:AMF77"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="1"/>
-    <col min="2" max="2" width="16.33203125" style="1"/>
-    <col min="3" max="3" width="19" style="1"/>
-    <col min="4" max="4" width="48.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" style="1" customWidth="1"/>
-    <col min="6" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="23.109375" style="1"/>
-    <col min="14" max="1025" width="19.88671875" style="1"/>
+    <col min="1" max="1" width="44.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="1020" width="19.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1542,391 +1535,397 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="11"/>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="11"/>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="11"/>
+      <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:1020">
+      <c r="A17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:1020">
+      <c r="A18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:1020">
+      <c r="A19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:1020">
+      <c r="A20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="11"/>
+    <row r="21" spans="1:1020">
+      <c r="A21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="11"/>
+    <row r="22" spans="1:1020">
+      <c r="A22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1020">
       <c r="A23" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C23" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D23" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2940,28 +2939,23 @@
       <c r="AMD23" s="8"/>
       <c r="AME23" s="8"/>
       <c r="AMF23" s="8"/>
-      <c r="AMG23" s="8"/>
-      <c r="AMH23" s="8"/>
-      <c r="AMI23" s="8"/>
-      <c r="AMJ23" s="8"/>
-      <c r="AMK23" s="8"/>
     </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1020">
       <c r="A24" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="D24" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -3975,28 +3969,23 @@
       <c r="AMD24" s="8"/>
       <c r="AME24" s="8"/>
       <c r="AMF24" s="8"/>
-      <c r="AMG24" s="8"/>
-      <c r="AMH24" s="8"/>
-      <c r="AMI24" s="8"/>
-      <c r="AMJ24" s="8"/>
-      <c r="AMK24" s="8"/>
     </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1020">
       <c r="A25" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="D25" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -5010,28 +4999,23 @@
       <c r="AMD25" s="8"/>
       <c r="AME25" s="8"/>
       <c r="AMF25" s="8"/>
-      <c r="AMG25" s="8"/>
-      <c r="AMH25" s="8"/>
-      <c r="AMI25" s="8"/>
-      <c r="AMJ25" s="8"/>
-      <c r="AMK25" s="8"/>
     </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1020">
       <c r="A26" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="D26" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -6045,28 +6029,23 @@
       <c r="AMD26" s="8"/>
       <c r="AME26" s="8"/>
       <c r="AMF26" s="8"/>
-      <c r="AMG26" s="8"/>
-      <c r="AMH26" s="8"/>
-      <c r="AMI26" s="8"/>
-      <c r="AMJ26" s="8"/>
-      <c r="AMK26" s="8"/>
     </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1020">
       <c r="A27" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C27" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="D27" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -7080,44 +7059,40 @@
       <c r="AMD27" s="8"/>
       <c r="AME27" s="8"/>
       <c r="AMF27" s="8"/>
-      <c r="AMG27" s="8"/>
-      <c r="AMH27" s="8"/>
-      <c r="AMI27" s="8"/>
-      <c r="AMJ27" s="8"/>
-      <c r="AMK27" s="8"/>
     </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1020">
       <c r="A28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:1020">
+      <c r="A29" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -8131,28 +8106,23 @@
       <c r="AMD29" s="8"/>
       <c r="AME29" s="8"/>
       <c r="AMF29" s="8"/>
-      <c r="AMG29" s="8"/>
-      <c r="AMH29" s="8"/>
-      <c r="AMI29" s="8"/>
-      <c r="AMJ29" s="8"/>
-      <c r="AMK29" s="8"/>
     </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1020">
       <c r="A30" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="D30" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -9166,28 +9136,23 @@
       <c r="AMD30" s="8"/>
       <c r="AME30" s="8"/>
       <c r="AMF30" s="8"/>
-      <c r="AMG30" s="8"/>
-      <c r="AMH30" s="8"/>
-      <c r="AMI30" s="8"/>
-      <c r="AMJ30" s="8"/>
-      <c r="AMK30" s="8"/>
     </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1020">
       <c r="A31" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C31" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="D31" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -10201,28 +10166,23 @@
       <c r="AMD31" s="8"/>
       <c r="AME31" s="8"/>
       <c r="AMF31" s="8"/>
-      <c r="AMG31" s="8"/>
-      <c r="AMH31" s="8"/>
-      <c r="AMI31" s="8"/>
-      <c r="AMJ31" s="8"/>
-      <c r="AMK31" s="8"/>
     </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1020">
       <c r="A32" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C32" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="D32" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -11236,28 +11196,23 @@
       <c r="AMD32" s="8"/>
       <c r="AME32" s="8"/>
       <c r="AMF32" s="8"/>
-      <c r="AMG32" s="8"/>
-      <c r="AMH32" s="8"/>
-      <c r="AMI32" s="8"/>
-      <c r="AMJ32" s="8"/>
-      <c r="AMK32" s="8"/>
     </row>
-    <row r="33" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1020">
       <c r="A33" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="D33" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -12271,44 +12226,40 @@
       <c r="AMD33" s="8"/>
       <c r="AME33" s="8"/>
       <c r="AMF33" s="8"/>
-      <c r="AMG33" s="8"/>
-      <c r="AMH33" s="8"/>
-      <c r="AMI33" s="8"/>
-      <c r="AMJ33" s="8"/>
-      <c r="AMK33" s="8"/>
     </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1020">
       <c r="A34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:1020">
+      <c r="A35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="11"/>
       <c r="D35" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -13322,28 +13273,23 @@
       <c r="AMD35" s="8"/>
       <c r="AME35" s="8"/>
       <c r="AMF35" s="8"/>
-      <c r="AMG35" s="8"/>
-      <c r="AMH35" s="8"/>
-      <c r="AMI35" s="8"/>
-      <c r="AMJ35" s="8"/>
-      <c r="AMK35" s="8"/>
     </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1020">
       <c r="A36" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="D36" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -14357,44 +14303,40 @@
       <c r="AMD36" s="8"/>
       <c r="AME36" s="8"/>
       <c r="AMF36" s="8"/>
-      <c r="AMG36" s="8"/>
-      <c r="AMH36" s="8"/>
-      <c r="AMI36" s="8"/>
-      <c r="AMJ36" s="8"/>
-      <c r="AMK36" s="8"/>
     </row>
-    <row r="37" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1020">
       <c r="A37" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="D37" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E37" s="11"/>
       <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1020">
       <c r="A38" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>178</v>
-      </c>
+      <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -15408,28 +15350,23 @@
       <c r="AMD38" s="8"/>
       <c r="AME38" s="8"/>
       <c r="AMF38" s="8"/>
-      <c r="AMG38" s="8"/>
-      <c r="AMH38" s="8"/>
-      <c r="AMI38" s="8"/>
-      <c r="AMJ38" s="8"/>
-      <c r="AMK38" s="8"/>
     </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1020">
       <c r="A39" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="D39" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>179</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -16443,28 +16380,23 @@
       <c r="AMD39" s="8"/>
       <c r="AME39" s="8"/>
       <c r="AMF39" s="8"/>
-      <c r="AMG39" s="8"/>
-      <c r="AMH39" s="8"/>
-      <c r="AMI39" s="8"/>
-      <c r="AMJ39" s="8"/>
-      <c r="AMK39" s="8"/>
     </row>
-    <row r="40" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1020">
       <c r="A40" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="D40" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>180</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="8"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -17478,44 +17410,40 @@
       <c r="AMD40" s="8"/>
       <c r="AME40" s="8"/>
       <c r="AMF40" s="8"/>
-      <c r="AMG40" s="8"/>
-      <c r="AMH40" s="8"/>
-      <c r="AMI40" s="8"/>
-      <c r="AMJ40" s="8"/>
-      <c r="AMK40" s="8"/>
     </row>
-    <row r="41" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1020">
       <c r="A41" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="D41" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>183</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E41" s="11"/>
       <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1020">
       <c r="A42" s="11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="D42" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>186</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="8"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -18529,28 +18457,23 @@
       <c r="AMD42" s="8"/>
       <c r="AME42" s="8"/>
       <c r="AMF42" s="8"/>
-      <c r="AMG42" s="8"/>
-      <c r="AMH42" s="8"/>
-      <c r="AMI42" s="8"/>
-      <c r="AMJ42" s="8"/>
-      <c r="AMK42" s="8"/>
     </row>
-    <row r="43" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1020">
       <c r="A43" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="D43" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="8"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -19564,28 +19487,23 @@
       <c r="AMD43" s="8"/>
       <c r="AME43" s="8"/>
       <c r="AMF43" s="8"/>
-      <c r="AMG43" s="8"/>
-      <c r="AMH43" s="8"/>
-      <c r="AMI43" s="8"/>
-      <c r="AMJ43" s="8"/>
-      <c r="AMK43" s="8"/>
     </row>
-    <row r="44" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1020">
       <c r="A44" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="D44" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>192</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="8"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -20599,28 +20517,23 @@
       <c r="AMD44" s="8"/>
       <c r="AME44" s="8"/>
       <c r="AMF44" s="8"/>
-      <c r="AMG44" s="8"/>
-      <c r="AMH44" s="8"/>
-      <c r="AMI44" s="8"/>
-      <c r="AMJ44" s="8"/>
-      <c r="AMK44" s="8"/>
     </row>
-    <row r="45" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1020">
       <c r="A45" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="D45" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>195</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="8"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -21634,28 +21547,23 @@
       <c r="AMD45" s="8"/>
       <c r="AME45" s="8"/>
       <c r="AMF45" s="8"/>
-      <c r="AMG45" s="8"/>
-      <c r="AMH45" s="8"/>
-      <c r="AMI45" s="8"/>
-      <c r="AMJ45" s="8"/>
-      <c r="AMK45" s="8"/>
     </row>
-    <row r="46" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1020">
       <c r="A46" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="D46" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>197</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -22669,92 +22577,91 @@
       <c r="AMD46" s="8"/>
       <c r="AME46" s="8"/>
       <c r="AMF46" s="8"/>
-      <c r="AMG46" s="8"/>
-      <c r="AMH46" s="8"/>
-      <c r="AMI46" s="8"/>
-      <c r="AMJ46" s="8"/>
-      <c r="AMK46" s="8"/>
     </row>
-    <row r="47" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1020">
       <c r="A47" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:1020">
+      <c r="A48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:1020">
+      <c r="A49" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11"/>
     </row>
-    <row r="48" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="13" t="s">
+    <row r="50" spans="1:1020">
+      <c r="A50" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="B50" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="D50" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+    <row r="51" spans="1:1020">
+      <c r="A51" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="13" t="s">
+      <c r="B51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="8"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -23768,115 +23675,120 @@
       <c r="AMD51" s="8"/>
       <c r="AME51" s="8"/>
       <c r="AMF51" s="8"/>
-      <c r="AMG51" s="8"/>
-      <c r="AMH51" s="8"/>
-      <c r="AMI51" s="8"/>
-      <c r="AMJ51" s="8"/>
-      <c r="AMK51" s="8"/>
     </row>
-    <row r="52" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1020">
       <c r="A52" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:1020">
+      <c r="A53" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:1020">
+      <c r="A54" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:1020">
+      <c r="A55" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:1020">
+      <c r="A56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="13" t="s">
+      <c r="B56" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:1020">
+      <c r="A57" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F52" s="11"/>
+      <c r="B57" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="11"/>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+    <row r="58" spans="1:1020">
+      <c r="A58" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="B58" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F58" s="8"/>
+      <c r="D58" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -24891,27 +24803,22 @@
       <c r="AMD58" s="8"/>
       <c r="AME58" s="8"/>
       <c r="AMF58" s="8"/>
-      <c r="AMG58" s="8"/>
-      <c r="AMH58" s="8"/>
-      <c r="AMI58" s="8"/>
-      <c r="AMJ58" s="8"/>
-      <c r="AMK58" s="8"/>
     </row>
-    <row r="59" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1020">
       <c r="A59" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" s="8"/>
+        <v>248</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -25926,41 +25833,38 @@
       <c r="AMD59" s="8"/>
       <c r="AME59" s="8"/>
       <c r="AMF59" s="8"/>
-      <c r="AMG59" s="8"/>
-      <c r="AMH59" s="8"/>
-      <c r="AMI59" s="8"/>
-      <c r="AMJ59" s="8"/>
-      <c r="AMK59" s="8"/>
     </row>
-    <row r="60" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1020">
       <c r="A60" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>263</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1020">
       <c r="A61" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F61" s="8"/>
+        <v>257</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -26975,139 +26879,150 @@
       <c r="AMD61" s="8"/>
       <c r="AME61" s="8"/>
       <c r="AMF61" s="8"/>
-      <c r="AMG61" s="8"/>
-      <c r="AMH61" s="8"/>
-      <c r="AMI61" s="8"/>
-      <c r="AMJ61" s="8"/>
-      <c r="AMK61" s="8"/>
     </row>
-    <row r="62" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1020">
       <c r="A62" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:1020">
+      <c r="A63" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:1020">
+      <c r="A64" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="13" t="s">
+      <c r="B64" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="1:1020">
+      <c r="A65" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:1020">
+      <c r="A66" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:1020">
+      <c r="A67" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="B67" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="D67" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
     </row>
-    <row r="63" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>273</v>
-      </c>
+    <row r="68" spans="1:1020">
+      <c r="A68" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
-    <row r="64" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>281</v>
-      </c>
+    <row r="69" spans="1:1020">
+      <c r="A69" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
     </row>
-    <row r="65" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="13" t="s">
+    <row r="70" spans="1:1020">
+      <c r="A70" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="B70" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="69" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F70" s="8"/>
+      <c r="D70" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -28122,83 +28037,86 @@
       <c r="AMD70" s="8"/>
       <c r="AME70" s="8"/>
       <c r="AMF70" s="8"/>
-      <c r="AMG70" s="8"/>
-      <c r="AMH70" s="8"/>
-      <c r="AMI70" s="8"/>
-      <c r="AMJ70" s="8"/>
-      <c r="AMK70" s="8"/>
     </row>
-    <row r="71" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1020">
       <c r="A71" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="B71" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:1020">
+      <c r="A72" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:1020">
+      <c r="A73" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:1020">
+      <c r="A74" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:1020">
+      <c r="A75" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="F75" s="8"/>
+      <c r="B75" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -29213,42 +29131,39 @@
       <c r="AMD75" s="8"/>
       <c r="AME75" s="8"/>
       <c r="AMF75" s="8"/>
-      <c r="AMG75" s="8"/>
-      <c r="AMH75" s="8"/>
-      <c r="AMI75" s="8"/>
-      <c r="AMJ75" s="8"/>
-      <c r="AMK75" s="8"/>
     </row>
-    <row r="76" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1020">
       <c r="A76" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>322</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1020">
       <c r="A77" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>318</v>
       </c>
       <c r="D77" t="s">
-        <v>325</v>
-      </c>
-      <c r="E77" t="s">
-        <v>324</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="E77"/>
       <c r="F77"/>
-      <c r="G77"/>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
@@ -30262,14 +30177,9 @@
       <c r="AMD77"/>
       <c r="AME77"/>
       <c r="AMF77"/>
-      <c r="AMG77"/>
-      <c r="AMH77"/>
-      <c r="AMI77"/>
-      <c r="AMJ77"/>
-      <c r="AMK77"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -30286,789 +30196,789 @@
       <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.33203125"/>
-    <col min="2" max="2" width="21.44140625"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.109375"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875"/>
+    <col min="1" max="1" width="40.36328125"/>
+    <col min="2" max="2" width="21.453125"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375"/>
+    <col min="5" max="5" width="22.90625" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="10" width="23.6640625"/>
-    <col min="11" max="12" width="26.33203125"/>
-    <col min="13" max="13" width="23.6640625"/>
-    <col min="14" max="14" width="26.33203125"/>
-    <col min="15" max="15" width="23.6640625"/>
-    <col min="16" max="22" width="40.33203125"/>
-    <col min="23" max="23" width="19.6640625"/>
-    <col min="24" max="24" width="21.6640625"/>
-    <col min="25" max="25" width="15.5546875"/>
-    <col min="26" max="27" width="40.33203125"/>
-    <col min="28" max="1025" width="8.5546875"/>
+    <col min="8" max="8" width="24.54296875" customWidth="1"/>
+    <col min="9" max="10" width="23.6328125"/>
+    <col min="11" max="12" width="26.36328125"/>
+    <col min="13" max="13" width="23.6328125"/>
+    <col min="14" max="14" width="26.36328125"/>
+    <col min="15" max="15" width="23.6328125"/>
+    <col min="16" max="22" width="40.36328125"/>
+    <col min="23" max="23" width="19.6328125"/>
+    <col min="24" max="24" width="21.6328125"/>
+    <col min="25" max="25" width="15.54296875"/>
+    <col min="26" max="27" width="40.36328125"/>
+    <col min="28" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
+    <row r="8" spans="1:18">
+      <c r="A8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
+    <row r="9" spans="1:18">
+      <c r="A9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
+    <row r="10" spans="1:18">
+      <c r="A10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
+    <row r="11" spans="1:18">
+      <c r="A11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
+    <row r="12" spans="1:18">
+      <c r="A12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="13" spans="1:18">
+      <c r="A13" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
         <v>115</v>
       </c>
-      <c r="D8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="L13" t="s">
         <v>116</v>
       </c>
-      <c r="F8" t="s">
+      <c r="M13" t="s">
         <v>117</v>
       </c>
-      <c r="G8" t="s">
+      <c r="N13" t="s">
         <v>118</v>
       </c>
-      <c r="H8" t="s">
+      <c r="O13" t="s">
         <v>119</v>
       </c>
-      <c r="I8" t="s">
+      <c r="P13" t="s">
         <v>120</v>
       </c>
-      <c r="J8" t="s">
+      <c r="Q13" t="s">
         <v>121</v>
       </c>
-      <c r="K8" t="s">
+      <c r="R13" t="s">
         <v>122</v>
       </c>
-      <c r="L8" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" t="s">
-        <v>125</v>
-      </c>
-      <c r="O8" t="s">
-        <v>126</v>
-      </c>
-      <c r="P8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R8" t="s">
-        <v>129</v>
-      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="14" spans="1:18">
+      <c r="A14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" t="s">
         <v>115</v>
       </c>
-      <c r="D9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="J14" t="s">
         <v>116</v>
       </c>
-      <c r="F9" t="s">
+      <c r="K14" t="s">
         <v>117</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L14" t="s">
         <v>118</v>
       </c>
-      <c r="H9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" t="s">
-        <v>126</v>
-      </c>
-      <c r="P9" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R9" t="s">
-        <v>129</v>
+      <c r="M14" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
         <v>115</v>
       </c>
-      <c r="D10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="J15" t="s">
         <v>116</v>
       </c>
-      <c r="F10" t="s">
+      <c r="K15" t="s">
         <v>117</v>
       </c>
-      <c r="G10" t="s">
+      <c r="L15" t="s">
         <v>118</v>
       </c>
-      <c r="H10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O10" t="s">
-        <v>126</v>
-      </c>
-      <c r="P10" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" t="s">
-        <v>129</v>
+      <c r="M15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
         <v>115</v>
       </c>
-      <c r="D11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="J16" t="s">
         <v>116</v>
       </c>
-      <c r="F11" t="s">
+      <c r="K16" t="s">
         <v>117</v>
       </c>
-      <c r="G11" t="s">
+      <c r="L16" t="s">
         <v>118</v>
       </c>
-      <c r="H11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" t="s">
-        <v>124</v>
-      </c>
-      <c r="N11" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" t="s">
-        <v>126</v>
-      </c>
-      <c r="P11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>128</v>
-      </c>
-      <c r="R11" t="s">
-        <v>129</v>
+      <c r="M16" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" t="s">
-        <v>126</v>
-      </c>
-      <c r="P12" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>128</v>
-      </c>
-      <c r="R12" t="s">
-        <v>129</v>
+    <row r="17" spans="1:9">
+      <c r="A17" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" t="s">
-        <v>124</v>
-      </c>
-      <c r="N13" t="s">
-        <v>125</v>
-      </c>
-      <c r="O13" t="s">
-        <v>126</v>
-      </c>
-      <c r="P13" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" t="s">
-        <v>129</v>
+    <row r="18" spans="1:9">
+      <c r="A18" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" t="s">
-        <v>154</v>
-      </c>
-      <c r="N14" t="s">
-        <v>155</v>
-      </c>
-      <c r="O14" t="s">
-        <v>156</v>
-      </c>
-      <c r="P14" t="s">
-        <v>157</v>
+    <row r="19" spans="1:9">
+      <c r="A19" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" t="s">
+        <v>308</v>
+      </c>
+      <c r="H19" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" t="s">
-        <v>154</v>
-      </c>
-      <c r="N15" t="s">
-        <v>155</v>
-      </c>
-      <c r="O15" t="s">
-        <v>156</v>
-      </c>
-      <c r="P15" t="s">
-        <v>157</v>
+    <row r="20" spans="1:9">
+      <c r="A20" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" t="s">
-        <v>154</v>
-      </c>
-      <c r="N16" t="s">
-        <v>155</v>
-      </c>
-      <c r="O16" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" t="s">
-        <v>157</v>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" t="s">
+        <v>308</v>
+      </c>
+      <c r="H21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I21" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B17" t="s">
-        <v>303</v>
-      </c>
-      <c r="C17" t="s">
-        <v>304</v>
-      </c>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C18" t="s">
-        <v>305</v>
-      </c>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C19" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" t="s">
-        <v>267</v>
-      </c>
-      <c r="F19" t="s">
-        <v>314</v>
-      </c>
-      <c r="G19" t="s">
-        <v>315</v>
-      </c>
-      <c r="H19" t="s">
-        <v>316</v>
-      </c>
-      <c r="I19" t="s">
-        <v>317</v>
-      </c>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B20" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D20" t="s">
-        <v>313</v>
-      </c>
-      <c r="E20" t="s">
-        <v>267</v>
-      </c>
-      <c r="F20" t="s">
-        <v>314</v>
-      </c>
-      <c r="G20" t="s">
-        <v>315</v>
-      </c>
-      <c r="H20" t="s">
-        <v>316</v>
-      </c>
-      <c r="I20" t="s">
-        <v>317</v>
-      </c>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B21" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E21" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" t="s">
-        <v>314</v>
-      </c>
-      <c r="G21" t="s">
-        <v>315</v>
-      </c>
-      <c r="H21" t="s">
-        <v>316</v>
-      </c>
-      <c r="I21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
@@ -31087,31 +30997,31 @@
   </sheetPr>
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="49.5546875"/>
-    <col min="2" max="1025" width="19.88671875"/>
+    <col min="1" max="1" width="49.54296875"/>
+    <col min="2" max="1025" width="19.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -31135,1407 +31045,1407 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26">
       <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="A6" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="A8" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="A9" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="A11" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="A14" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="A15" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="A16" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
+      <c r="B27" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" t="s">
-        <v>23</v>
+    <row r="28" spans="1:18">
+      <c r="A28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
+    <row r="29" spans="1:18">
+      <c r="A29" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
+    <row r="30" spans="1:18">
+      <c r="A30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" t="s">
-        <v>23</v>
+    <row r="31" spans="1:18">
+      <c r="A31" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
+    <row r="32" spans="1:18">
+      <c r="A32" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" t="s">
-        <v>23</v>
-      </c>
-      <c r="P28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" t="s">
-        <v>23</v>
+    <row r="33" spans="1:18">
+      <c r="A33" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" t="s">
-        <v>23</v>
+    <row r="34" spans="1:18">
+      <c r="A34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" t="s">
-        <v>23</v>
+    <row r="35" spans="1:18">
+      <c r="A35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" t="s">
-        <v>23</v>
+    <row r="36" spans="1:18">
+      <c r="A36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" t="s">
-        <v>23</v>
-      </c>
-      <c r="O33" t="s">
-        <v>23</v>
-      </c>
-      <c r="P33" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" t="s">
-        <v>23</v>
-      </c>
-      <c r="O34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" t="s">
-        <v>23</v>
-      </c>
-      <c r="O35" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18">
       <c r="A46" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18">
       <c r="A47" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18">
       <c r="A48" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="10" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="10" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="10" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="11" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="11" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="11" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="11" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F74" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -32559,980 +32469,980 @@
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="51.109375"/>
-    <col min="2" max="1025" width="19.88671875"/>
+    <col min="1" max="1" width="51.08984375"/>
+    <col min="2" max="1025" width="19.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
+      <c r="B12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
+    <row r="13" spans="1:18">
+      <c r="A13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>93</v>
+    <row r="14" spans="1:18">
+      <c r="A14" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>126</v>
+      </c>
+      <c r="R14" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
+    <row r="15" spans="1:18">
+      <c r="A15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
+    <row r="16" spans="1:18">
+      <c r="A16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>126</v>
+      </c>
+      <c r="R16" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
+    <row r="17" spans="1:18">
+      <c r="A17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>126</v>
+      </c>
+      <c r="R17" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O13" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>133</v>
-      </c>
-      <c r="R13" t="s">
-        <v>133</v>
+    <row r="18" spans="1:18">
+      <c r="A18" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>126</v>
+      </c>
+      <c r="R18" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" t="s">
-        <v>133</v>
-      </c>
-      <c r="N14" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>133</v>
-      </c>
-      <c r="R14" t="s">
-        <v>133</v>
+    <row r="19" spans="1:18">
+      <c r="A19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N15" t="s">
-        <v>133</v>
-      </c>
-      <c r="O15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>133</v>
-      </c>
-      <c r="R15" t="s">
-        <v>133</v>
+    <row r="20" spans="1:18">
+      <c r="A20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" t="s">
-        <v>132</v>
-      </c>
-      <c r="M16" t="s">
-        <v>133</v>
-      </c>
-      <c r="N16" t="s">
-        <v>133</v>
-      </c>
-      <c r="O16" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>133</v>
-      </c>
-      <c r="R16" t="s">
-        <v>133</v>
+    <row r="21" spans="1:18">
+      <c r="A21" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" t="s">
-        <v>132</v>
-      </c>
-      <c r="M17" t="s">
-        <v>133</v>
-      </c>
-      <c r="N17" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>133</v>
-      </c>
-      <c r="R17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" t="s">
-        <v>132</v>
-      </c>
-      <c r="M18" t="s">
-        <v>133</v>
-      </c>
-      <c r="N18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O18" t="s">
-        <v>93</v>
-      </c>
-      <c r="P18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" t="s">
-        <v>133</v>
-      </c>
-      <c r="L19" t="s">
-        <v>133</v>
-      </c>
-      <c r="M19" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" t="s">
-        <v>132</v>
-      </c>
-      <c r="O19" t="s">
-        <v>133</v>
-      </c>
-      <c r="P19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N20" t="s">
-        <v>132</v>
-      </c>
-      <c r="O20" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" t="s">
-        <v>133</v>
-      </c>
-      <c r="N21" t="s">
-        <v>132</v>
-      </c>
-      <c r="O21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="11" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="11" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="11" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="11" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -33552,38 +33462,38 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875"/>
-    <col min="4" max="1025" width="19.88671875"/>
+    <col min="1" max="1" width="38.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.90625"/>
+    <col min="4" max="1025" width="19.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
@@ -33591,7 +33501,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -33599,7 +33509,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -33607,7 +33517,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -33615,7 +33525,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
@@ -33623,7 +33533,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -33631,7 +33541,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -33639,7 +33549,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -33647,7 +33557,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -33655,7 +33565,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -33663,7 +33573,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -33671,7 +33581,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -33679,7 +33589,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -33687,7 +33597,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -33695,7 +33605,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -33703,7 +33613,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -33711,7 +33621,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -33719,7 +33629,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -33727,7 +33637,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -33735,7 +33645,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -33743,7 +33653,7 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -33751,7 +33661,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -33759,7 +33669,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
@@ -33767,7 +33677,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -33775,7 +33685,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -33783,7 +33693,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="11"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
@@ -33791,7 +33701,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="11"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
@@ -33799,7 +33709,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="11"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
@@ -33807,7 +33717,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="11"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -33815,7 +33725,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="11"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
@@ -33823,13 +33733,13 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" s="8"/>
     </row>
   </sheetData>
@@ -33849,139 +33759,139 @@
       <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="41"/>
-    <col min="2" max="1025" width="19.88671875"/>
+    <col min="2" max="1025" width="19.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="9"/>
@@ -33990,49 +33900,49 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="9"/>
@@ -34041,603 +33951,603 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>87</v>
+    <row r="13" spans="1:11">
+      <c r="A13" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>83</v>
+    <row r="14" spans="1:11">
+      <c r="A14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C30" t="s">
+      <c r="H30" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D30" t="s">
+      <c r="I30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C31" t="s">
+      <c r="H31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D31" t="s">
+      <c r="I31" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E38" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>227</v>
+    <row r="39" spans="1:13">
+      <c r="A39" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" t="s">
-        <v>219</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>227</v>
+    <row r="40" spans="1:13">
+      <c r="A40" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="41" spans="1:13">
+      <c r="A41" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E41" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E35" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/dds/operations.xlsx
+++ b/dds/operations.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="327">
   <si>
     <t>Identifier</t>
   </si>
@@ -146,9 +146,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>farm.helideck</t>
-  </si>
-  <si>
     <t>Presence of a Helideck</t>
   </si>
   <si>
@@ -1005,19 +1002,35 @@
   </si>
   <si>
     <t>project.uptime_series</t>
+  </si>
+  <si>
+    <t>site.helideck</t>
+  </si>
+  <si>
+    <t>filter.site</t>
+  </si>
+  <si>
+    <t>has_helipad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1067,7 +1080,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,6 +1108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1128,27 +1147,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1156,19 +1176,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="7" builtinId="39"/>
     <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,7 +1571,7 @@
   <dimension ref="A1:AMF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -1579,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -1593,224 +1615,220 @@
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1">
       <c r="A2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1">
       <c r="A3" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1">
       <c r="A6" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="D6" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="13" customFormat="1">
       <c r="A7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1">
       <c r="A8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1">
       <c r="A9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1">
       <c r="A10" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1">
       <c r="A12" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>210</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1">
       <c r="A13" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="D13" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="17" customFormat="1">
-      <c r="A14" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="19" customFormat="1">
+      <c r="A14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>177</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>174</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -1819,16 +1837,16 @@
     </row>
     <row r="17" spans="1:1020" s="17" customFormat="1">
       <c r="A17" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -1837,16 +1855,16 @@
     </row>
     <row r="18" spans="1:1020" s="17" customFormat="1">
       <c r="A18" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="D18" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -1855,16 +1873,16 @@
     </row>
     <row r="19" spans="1:1020" s="17" customFormat="1">
       <c r="A19" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>228</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -1873,16 +1891,16 @@
     </row>
     <row r="20" spans="1:1020" s="17" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -1891,100 +1909,100 @@
     </row>
     <row r="21" spans="1:1020" s="15" customFormat="1">
       <c r="A21" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1020" s="15" customFormat="1">
       <c r="A22" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:1020" s="15" customFormat="1">
       <c r="A23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="C23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1020" s="15" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1020" s="15" customFormat="1">
       <c r="A25" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:1020" s="15" customFormat="1">
       <c r="A26" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1020" s="15" customFormat="1">
       <c r="A27" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -1992,16 +2010,16 @@
     </row>
     <row r="28" spans="1:1020" s="17" customFormat="1">
       <c r="A28" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -2010,16 +2028,16 @@
     </row>
     <row r="29" spans="1:1020" s="15" customFormat="1">
       <c r="A29" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
@@ -2028,30 +2046,30 @@
     </row>
     <row r="30" spans="1:1020" s="15" customFormat="1">
       <c r="A30" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:1020">
       <c r="A31" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>244</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>245</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -3072,7 +3090,7 @@
     </row>
     <row r="32" spans="1:1020" s="17" customFormat="1">
       <c r="A32" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>28</v>
@@ -3090,39 +3108,39 @@
     </row>
     <row r="33" spans="1:8" s="17" customFormat="1">
       <c r="A33" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C33" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:8" s="17" customFormat="1">
       <c r="A34" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>236</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:8" s="15" customFormat="1">
       <c r="A35" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>28</v>
@@ -3136,16 +3154,16 @@
     </row>
     <row r="36" spans="1:8" s="15" customFormat="1">
       <c r="A36" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>266</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>267</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -3154,7 +3172,7 @@
     </row>
     <row r="37" spans="1:8" s="15" customFormat="1">
       <c r="A37" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>28</v>
@@ -3168,32 +3186,32 @@
     </row>
     <row r="38" spans="1:8" s="15" customFormat="1">
       <c r="A38" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C38" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>269</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:8" s="15" customFormat="1">
       <c r="A39" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -3202,7 +3220,7 @@
     </row>
     <row r="40" spans="1:8" s="15" customFormat="1">
       <c r="A40" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>28</v>
@@ -3216,58 +3234,58 @@
     </row>
     <row r="41" spans="1:8" s="15" customFormat="1">
       <c r="A41" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="15" customFormat="1">
       <c r="A42" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="15" customFormat="1">
       <c r="A43" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="17" customFormat="1">
       <c r="A44" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -3276,16 +3294,16 @@
     </row>
     <row r="45" spans="1:8" s="17" customFormat="1">
       <c r="A45" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -3294,108 +3312,108 @@
     </row>
     <row r="46" spans="1:8" s="15" customFormat="1">
       <c r="A46" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:8" s="15" customFormat="1">
       <c r="A47" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:8" s="17" customFormat="1">
       <c r="A48" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:1020" s="15" customFormat="1">
       <c r="A49" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>231</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:1020" s="15" customFormat="1">
       <c r="A50" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:1020" s="15" customFormat="1">
       <c r="A51" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:1020" s="15" customFormat="1">
       <c r="A52" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
@@ -3404,16 +3422,16 @@
     </row>
     <row r="53" spans="1:1020" s="15" customFormat="1">
       <c r="A53" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>241</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>242</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
@@ -3422,16 +3440,16 @@
     </row>
     <row r="54" spans="1:1020" s="15" customFormat="1">
       <c r="A54" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>238</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>239</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -3440,16 +3458,16 @@
     </row>
     <row r="55" spans="1:1020">
       <c r="A55" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -3458,16 +3476,16 @@
     </row>
     <row r="56" spans="1:1020">
       <c r="A56" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
@@ -3476,16 +3494,16 @@
     </row>
     <row r="57" spans="1:1020">
       <c r="A57" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
@@ -3494,16 +3512,16 @@
     </row>
     <row r="58" spans="1:1020">
       <c r="A58" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -4524,16 +4542,16 @@
     </row>
     <row r="59" spans="1:1020">
       <c r="A59" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -5554,16 +5572,16 @@
     </row>
     <row r="60" spans="1:1020">
       <c r="A60" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -5572,106 +5590,106 @@
     </row>
     <row r="61" spans="1:1020" s="15" customFormat="1">
       <c r="A61" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:1020" s="15" customFormat="1">
       <c r="A62" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:1020" s="15" customFormat="1">
       <c r="A63" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:1020" s="15" customFormat="1">
       <c r="A64" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:1020" s="15" customFormat="1">
       <c r="A65" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:1020" s="15" customFormat="1">
       <c r="A66" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:1020" s="15" customFormat="1">
       <c r="A67" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
@@ -5680,16 +5698,16 @@
     </row>
     <row r="68" spans="1:1020" s="15" customFormat="1">
       <c r="A68" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
@@ -5698,16 +5716,16 @@
     </row>
     <row r="69" spans="1:1020">
       <c r="A69" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C69" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
@@ -5716,16 +5734,16 @@
     </row>
     <row r="70" spans="1:1020">
       <c r="A70" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
@@ -6746,16 +6764,16 @@
     </row>
     <row r="71" spans="1:1020">
       <c r="A71" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C71" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>248</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>249</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
@@ -6764,16 +6782,16 @@
     </row>
     <row r="72" spans="1:1020">
       <c r="A72" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
@@ -6782,16 +6800,16 @@
     </row>
     <row r="73" spans="1:1020">
       <c r="A73" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
@@ -6800,16 +6818,16 @@
     </row>
     <row r="74" spans="1:1020">
       <c r="A74" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
@@ -6818,16 +6836,16 @@
     </row>
     <row r="75" spans="1:1020">
       <c r="A75" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
@@ -7848,16 +7866,16 @@
     </row>
     <row r="76" spans="1:1020">
       <c r="A76" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
@@ -7866,16 +7884,16 @@
     </row>
     <row r="77" spans="1:1020">
       <c r="A77" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
@@ -8958,717 +8976,717 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>125</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>126</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>127</v>
-      </c>
-      <c r="P2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>92</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>93</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>94</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>95</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>96</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>97</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>98</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>99</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>100</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>101</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>102</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>104</v>
-      </c>
-      <c r="R4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>92</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>93</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>94</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>95</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>96</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>97</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>98</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>99</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>100</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>101</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>102</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>103</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>104</v>
-      </c>
-      <c r="R6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
         <v>122</v>
       </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
       <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
         <v>93</v>
       </c>
-      <c r="F7" t="s">
-        <v>94</v>
-      </c>
       <c r="G7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" t="s">
         <v>96</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>97</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>98</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" t="s">
-        <v>101</v>
-      </c>
       <c r="M7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" t="s">
         <v>125</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>126</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>127</v>
-      </c>
-      <c r="P7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>94</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>95</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>98</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>99</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>101</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>102</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>103</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>104</v>
-      </c>
-      <c r="R9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>92</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>93</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>94</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>95</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>96</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>97</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>98</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>99</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>100</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>101</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>102</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>103</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>104</v>
-      </c>
-      <c r="R11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
       <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
         <v>93</v>
       </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
       <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
         <v>96</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>97</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>98</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>99</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>100</v>
       </c>
-      <c r="L13" t="s">
-        <v>101</v>
-      </c>
       <c r="M13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" t="s">
         <v>125</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>126</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>127</v>
-      </c>
-      <c r="P13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>93</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>94</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>95</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>96</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>97</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>98</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>99</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>100</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>101</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>102</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>103</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>104</v>
-      </c>
-      <c r="R15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>93</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>94</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>95</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>96</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>97</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>98</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>99</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>100</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>101</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>102</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>103</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>104</v>
-      </c>
-      <c r="R17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" t="s">
         <v>253</v>
-      </c>
-      <c r="C18" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" t="s">
         <v>259</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>260</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" t="s">
         <v>261</v>
       </c>
-      <c r="E19" t="s">
-        <v>225</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>262</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>263</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>264</v>
-      </c>
-      <c r="I19" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" t="s">
         <v>259</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>260</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" t="s">
         <v>261</v>
       </c>
-      <c r="E20" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>262</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>263</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>264</v>
-      </c>
-      <c r="I20" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" t="s">
         <v>259</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>260</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" t="s">
         <v>261</v>
       </c>
-      <c r="E21" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>262</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>263</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>264</v>
-      </c>
-      <c r="I21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -9772,7 +9790,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>37</v>
@@ -9783,7 +9801,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>37</v>
@@ -9794,7 +9812,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>37</v>
@@ -9805,7 +9823,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>36</v>
@@ -9816,7 +9834,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="10" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>37</v>
@@ -9827,7 +9845,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>36</v>
@@ -9838,7 +9856,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>36</v>
@@ -9849,7 +9867,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>36</v>
@@ -9860,7 +9878,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>16</v>
@@ -9871,7 +9889,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -9882,7 +9900,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -9893,7 +9911,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>16</v>
@@ -9904,7 +9922,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>36</v>
@@ -9915,7 +9933,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
@@ -9926,7 +9944,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>37</v>
@@ -9937,7 +9955,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>37</v>
@@ -9948,7 +9966,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>37</v>
@@ -9959,7 +9977,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>37</v>
@@ -9970,7 +9988,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>37</v>
@@ -9981,7 +9999,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>37</v>
@@ -9992,10 +10010,10 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -10024,10 +10042,10 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -10056,10 +10074,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -10088,10 +10106,10 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -10120,10 +10138,10 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -10152,10 +10170,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -10184,10 +10202,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -10240,10 +10258,10 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -10296,10 +10314,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -10352,10 +10370,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -10408,10 +10426,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -10464,10 +10482,10 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -10520,10 +10538,10 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -10570,10 +10588,10 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -10620,10 +10638,10 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -10670,7 +10688,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>16</v>
@@ -10681,7 +10699,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>16</v>
@@ -10692,7 +10710,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>16</v>
@@ -10703,7 +10721,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>16</v>
@@ -10714,7 +10732,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>16</v>
@@ -10725,7 +10743,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>16</v>
@@ -10736,7 +10754,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>16</v>
@@ -10747,7 +10765,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>16</v>
@@ -10758,7 +10776,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>16</v>
@@ -10769,7 +10787,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>16</v>
@@ -10780,7 +10798,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>16</v>
@@ -10791,7 +10809,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>16</v>
@@ -10802,7 +10820,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>16</v>
@@ -10813,10 +10831,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -10824,10 +10842,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -10835,7 +10853,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>16</v>
@@ -10846,7 +10864,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
@@ -10857,7 +10875,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>16</v>
@@ -10868,7 +10886,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>16</v>
@@ -10879,7 +10897,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>16</v>
@@ -10890,7 +10908,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>16</v>
@@ -10901,7 +10919,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>16</v>
@@ -10912,7 +10930,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>16</v>
@@ -10923,7 +10941,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>16</v>
@@ -10934,7 +10952,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>16</v>
@@ -10945,7 +10963,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>37</v>
@@ -10956,7 +10974,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
@@ -10967,7 +10985,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>16</v>
@@ -10978,7 +10996,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>16</v>
@@ -10989,7 +11007,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>16</v>
@@ -11000,7 +11018,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>16</v>
@@ -11011,7 +11029,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>16</v>
@@ -11022,7 +11040,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>16</v>
@@ -11033,7 +11051,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>16</v>
@@ -11044,7 +11062,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>16</v>
@@ -11057,7 +11075,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>16</v>
@@ -11070,22 +11088,22 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -11099,22 +11117,22 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
@@ -11128,22 +11146,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
@@ -11157,7 +11175,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B76" t="s">
         <v>36</v>
@@ -11219,10 +11237,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -11230,10 +11248,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -11241,10 +11259,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -11252,10 +11270,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -11263,10 +11281,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -11274,616 +11292,616 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="M13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s">
         <v>107</v>
       </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="Q13" t="s">
         <v>108</v>
       </c>
-      <c r="M13" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>108</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>109</v>
-      </c>
-      <c r="R13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="M14" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s">
         <v>107</v>
       </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="Q14" t="s">
         <v>108</v>
       </c>
-      <c r="M14" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>108</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>109</v>
-      </c>
-      <c r="R14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="M15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s">
         <v>107</v>
       </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="Q15" t="s">
         <v>108</v>
       </c>
-      <c r="M15" t="s">
-        <v>109</v>
-      </c>
-      <c r="N15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" t="s">
-        <v>73</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>108</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>109</v>
-      </c>
-      <c r="R15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="M16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s">
         <v>107</v>
       </c>
-      <c r="F16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="Q16" t="s">
         <v>108</v>
       </c>
-      <c r="M16" t="s">
-        <v>109</v>
-      </c>
-      <c r="N16" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>109</v>
-      </c>
-      <c r="R16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
         <v>107</v>
       </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="M17" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="s">
         <v>107</v>
       </c>
-      <c r="F17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="Q17" t="s">
         <v>108</v>
       </c>
-      <c r="M17" t="s">
-        <v>109</v>
-      </c>
-      <c r="N17" t="s">
-        <v>109</v>
-      </c>
-      <c r="O17" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>108</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>109</v>
-      </c>
-      <c r="R17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="M18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="s">
         <v>107</v>
       </c>
-      <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="Q18" t="s">
         <v>108</v>
       </c>
-      <c r="M18" t="s">
-        <v>109</v>
-      </c>
-      <c r="N18" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>108</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>109</v>
-      </c>
-      <c r="R18" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
         <v>107</v>
       </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="K19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" t="s">
         <v>107</v>
       </c>
-      <c r="H19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="O19" t="s">
         <v>108</v>
       </c>
-      <c r="K19" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" t="s">
-        <v>109</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>108</v>
-      </c>
-      <c r="O19" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="K20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" t="s">
         <v>107</v>
       </c>
-      <c r="H20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="O20" t="s">
         <v>108</v>
       </c>
-      <c r="K20" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" t="s">
-        <v>109</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>108</v>
-      </c>
-      <c r="O20" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" t="s">
         <v>107</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="K21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s">
         <v>107</v>
       </c>
-      <c r="H21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="O21" t="s">
         <v>108</v>
       </c>
-      <c r="K21" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>108</v>
-      </c>
-      <c r="O21" t="s">
-        <v>109</v>
-      </c>
-      <c r="P21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -11891,10 +11909,10 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -11902,10 +11920,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -11913,10 +11931,10 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -11924,10 +11942,10 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -11935,10 +11953,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -11946,10 +11964,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -11957,10 +11975,10 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -11968,10 +11986,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -11979,10 +11997,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -11990,10 +12008,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -12001,10 +12019,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -12012,10 +12030,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -12023,151 +12041,151 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -12184,7 +12202,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -12219,15 +12237,20 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>326</v>
+      </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -12509,51 +12532,51 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
@@ -12564,66 +12587,66 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="9"/>
@@ -12634,162 +12657,162 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -12797,481 +12820,481 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
         <v>179</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>180</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>181</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="M34" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" t="s">
         <v>179</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>180</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>181</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="M35" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>59</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>60</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>60</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
         <v>58</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>59</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>60</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="K38" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>60</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>59</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>60</v>
       </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
       <c r="F40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>59</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>60</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F42" s="8"/>
     </row>

--- a/dds/operations.xlsx
+++ b/dds/operations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="356"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="356" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -1007,23 +1007,30 @@
     <t>site.helideck</t>
   </si>
   <si>
-    <t>filter.site</t>
-  </si>
-  <si>
     <t>has_helipad</t>
+  </si>
+  <si>
+    <t>filter.site_infrastructure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1149,26 +1156,26 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1176,16 +1183,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -1570,8 +1578,8 @@
   </sheetPr>
   <dimension ref="A1:AMF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -1788,7 +1796,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="19" customFormat="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>324</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -12201,8 +12209,8 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -12241,10 +12249,10 @@
         <v>324</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>326</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>

--- a/dds/operations.xlsx
+++ b/dds/operations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="390" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="369">
   <si>
     <t>Identifier</t>
   </si>
@@ -965,9 +965,6 @@
     <t>Requirements data for accessing device sub-systems</t>
   </si>
   <si>
-    <t>device.subsytem_maintenance</t>
-  </si>
-  <si>
     <t>device.subsystem_maintenance</t>
   </si>
   <si>
@@ -1113,9 +1110,6 @@
   </si>
   <si>
     <t>device.control_subsystem_failure_rates</t>
-  </si>
-  <si>
-    <t>device.subsystem_operations_weighting</t>
   </si>
   <si>
     <t>filter.view_sub_systems_operation_weightings</t>
@@ -1152,13 +1146,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1306,25 +1307,25 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1332,21 +1333,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
@@ -1775,10 +1777,10 @@
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1">
       <c r="A2" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>308</v>
@@ -1789,26 +1791,26 @@
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1">
       <c r="A3" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>323</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1">
       <c r="A4" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>181</v>
@@ -1821,10 +1823,10 @@
     </row>
     <row r="5" spans="1:8" s="17" customFormat="1">
       <c r="A5" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>121</v>
@@ -1835,10 +1837,10 @@
     </row>
     <row r="6" spans="1:8" s="17" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>104</v>
@@ -1849,10 +1851,10 @@
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1">
       <c r="A7" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>76</v>
@@ -1863,24 +1865,24 @@
     </row>
     <row r="8" spans="1:8" s="17" customFormat="1">
       <c r="A8" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>350</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1">
       <c r="A9" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>110</v>
@@ -1894,7 +1896,7 @@
         <v>307</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>308</v>
@@ -1908,13 +1910,13 @@
         <v>186</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>323</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -1924,7 +1926,7 @@
         <v>187</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>181</v>
@@ -1936,11 +1938,11 @@
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="23" t="s">
         <v>306</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>121</v>
@@ -1951,10 +1953,10 @@
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>104</v>
@@ -1964,11 +1966,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1">
-      <c r="A15" s="17" t="s">
-        <v>312</v>
+      <c r="A15" s="23" t="s">
+        <v>311</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>76</v>
@@ -1978,25 +1980,25 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>351</v>
-      </c>
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1">
-      <c r="A17" s="17" t="s">
-        <v>313</v>
+      <c r="A17" s="23" t="s">
+        <v>312</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>110</v>
@@ -8077,7 +8079,7 @@
         <v>298</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>38</v>
@@ -9120,8 +9122,8 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -9168,7 +9170,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
         <v>200</v>
@@ -9197,7 +9199,7 @@
     </row>
     <row r="3" spans="1:18" s="7" customFormat="1">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
         <v>200</v>
@@ -9239,7 +9241,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
         <v>200</v>
@@ -9280,7 +9282,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
         <v>200</v>
@@ -9300,21 +9302,24 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>352</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
         <v>200</v>
@@ -9424,7 +9429,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
         <v>200</v>
@@ -9465,7 +9470,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
         <v>200</v>
@@ -9485,21 +9490,24 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
         <v>200</v>
@@ -10076,7 +10084,7 @@
   <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -10125,7 +10133,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
         <v>158</v>
@@ -10154,7 +10162,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>158</v>
@@ -10174,7 +10182,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>158</v>
@@ -10215,7 +10223,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>16</v>
@@ -10226,7 +10234,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>16</v>
@@ -10237,7 +10245,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>158</v>
@@ -10272,7 +10280,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>16</v>
@@ -10287,7 +10295,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
         <v>158</v>
@@ -10419,7 +10427,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
         <v>158</v>
@@ -10460,7 +10468,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>158</v>
@@ -10480,7 +10488,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="11" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>16</v>
@@ -10495,7 +10503,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
         <v>158</v>
@@ -11767,7 +11775,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
         <v>101</v>
@@ -11808,7 +11816,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
         <v>101</v>
@@ -11828,7 +11836,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
         <v>101</v>
@@ -11869,7 +11877,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
         <v>101</v>
@@ -11898,7 +11906,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>73</v>
@@ -11909,7 +11917,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>171</v>
@@ -11920,7 +11928,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>101</v>
@@ -11955,7 +11963,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
         <v>101</v>
@@ -11996,7 +12004,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
         <v>101</v>
@@ -12016,7 +12024,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
         <v>101</v>
@@ -12816,239 +12824,239 @@
         <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
         <v>314</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>315</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>316</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
         <v>317</v>
-      </c>
-      <c r="G2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>364</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>315</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -13056,25 +13064,25 @@
         <v>307</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" t="s">
         <v>314</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>315</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" t="s">
         <v>317</v>
-      </c>
-      <c r="G10" t="s">
-        <v>319</v>
-      </c>
-      <c r="H10" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -13082,13 +13090,13 @@
         <v>186</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -13097,13 +13105,13 @@
         <v>187</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -13112,157 +13120,157 @@
         <v>306</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>364</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>315</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13414,8 +13422,8 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -13443,7 +13451,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -13451,7 +13459,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -13459,7 +13467,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -13467,7 +13475,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -13475,7 +13483,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -13483,7 +13491,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -13491,7 +13499,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -13499,7 +13507,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -13564,7 +13572,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -13578,7 +13586,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -13593,7 +13601,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>

--- a/dds/operations.xlsx
+++ b/dds/operations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="369">
   <si>
     <t>Identifier</t>
   </si>
@@ -9122,8 +9122,8 @@
   </sheetPr>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -9345,18 +9345,6 @@
       <c r="I7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M7" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
@@ -9532,18 +9520,6 @@
       </c>
       <c r="I13" t="s">
         <v>91</v>
-      </c>
-      <c r="J13" t="s">
-        <v>302</v>
-      </c>
-      <c r="K13" t="s">
-        <v>303</v>
-      </c>
-      <c r="L13" t="s">
-        <v>304</v>
-      </c>
-      <c r="M13" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -10083,8 +10059,8 @@
   </sheetPr>
   <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -10165,83 +10141,98 @@
         <v>357</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="10" t="s">
         <v>353</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
@@ -10260,21 +10251,6 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10283,7 +10259,7 @@
         <v>351</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>16</v>
@@ -10291,7 +10267,9 @@
       <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="10" t="s">
@@ -10320,18 +10298,6 @@
       </c>
       <c r="I9" t="s">
         <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -10491,7 +10457,7 @@
         <v>348</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>16</v>
@@ -10499,9 +10465,11 @@
       <c r="D16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
         <v>312</v>
       </c>
@@ -10529,20 +10497,8 @@
       <c r="I17" t="s">
         <v>36</v>
       </c>
-      <c r="J17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="11" t="s">
         <v>155</v>
       </c>
@@ -10553,7 +10509,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
         <v>152</v>
       </c>
@@ -10564,7 +10520,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:9">
       <c r="A20" s="11" t="s">
         <v>144</v>
       </c>
@@ -10575,7 +10531,7 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:9">
       <c r="A21" s="11" t="s">
         <v>148</v>
       </c>
@@ -10586,7 +10542,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:9">
       <c r="A22" s="11" t="s">
         <v>201</v>
       </c>
@@ -10597,7 +10553,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:9">
       <c r="A23" s="11" t="s">
         <v>197</v>
       </c>
@@ -10608,7 +10564,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
@@ -10619,7 +10575,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
         <v>47</v>
       </c>
@@ -10630,7 +10586,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
         <v>49</v>
       </c>
@@ -10641,7 +10597,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -10652,7 +10608,7 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
@@ -10663,7 +10619,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
@@ -10674,7 +10630,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:9">
       <c r="A30" s="11" t="s">
         <v>185</v>
       </c>
@@ -10685,7 +10641,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:9">
       <c r="A31" s="11" t="s">
         <v>194</v>
       </c>
@@ -10696,7 +10652,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:9">
       <c r="A32" s="11" t="s">
         <v>266</v>
       </c>
@@ -11656,7 +11612,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:M15"/>
+      <selection activeCell="J15" sqref="J15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -11862,18 +11818,6 @@
       <c r="I8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
@@ -12049,18 +11993,6 @@
       </c>
       <c r="I15" t="s">
         <v>101</v>
-      </c>
-      <c r="J15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -12790,8 +12722,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="K17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -13241,7 +13173,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>312</v>
       </c>
@@ -13272,8 +13204,12 @@
       <c r="J17" s="10" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>298</v>
       </c>
@@ -13283,11 +13219,8 @@
       <c r="C18" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="11"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -13295,7 +13228,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:14">
       <c r="A20" s="11"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -13303,7 +13236,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:14">
       <c r="A21" s="11"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -13311,7 +13244,7 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:14">
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -13319,7 +13252,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:14">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -13327,7 +13260,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:14">
       <c r="A24" s="11"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
@@ -13335,7 +13268,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:14">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -13343,7 +13276,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:14">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -13351,7 +13284,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:14">
       <c r="A27" s="11"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
@@ -13359,7 +13292,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
@@ -13367,28 +13300,28 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:14">
       <c r="A29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:14">
       <c r="A30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:14">
       <c r="A31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:14">
       <c r="A32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>

--- a/dds/operations.xlsx
+++ b/dds/operations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="390"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8080" tabRatio="390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="372">
   <si>
     <t>Identifier</t>
   </si>
@@ -149,9 +149,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>Presence of a Helideck</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Number of shifts per day                           </t>
   </si>
   <si>
@@ -929,15 +926,9 @@
     <t>project.uptime_series</t>
   </si>
   <si>
-    <t>site.helideck</t>
-  </si>
-  <si>
     <t>has_helipad</t>
   </si>
   <si>
-    <t>filter.site_infrastructure</t>
-  </si>
-  <si>
     <t>Operation Duration</t>
   </si>
   <si>
@@ -1146,6 +1137,18 @@
   </si>
   <si>
     <t>hidden.device_filtered</t>
+  </si>
+  <si>
+    <t>farm.helideck</t>
+  </si>
+  <si>
+    <t>Presence of a helideck within the array</t>
+  </si>
+  <si>
+    <t>Array Helideck</t>
+  </si>
+  <si>
+    <t>filter.lease_area</t>
   </si>
 </sst>
 </file>
@@ -1347,13 +1350,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -1738,8 +1741,8 @@
   </sheetPr>
   <dimension ref="A1:AMF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -1772,310 +1775,310 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1">
+      <c r="A3" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" s="17" customFormat="1">
+      <c r="A4" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" s="17" customFormat="1">
+      <c r="A5" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="17" customFormat="1" ht="14" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="17" customFormat="1">
+      <c r="A7" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="17" customFormat="1">
-      <c r="A3" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="B7" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="17" customFormat="1">
+      <c r="A8" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" s="17" customFormat="1">
-      <c r="A4" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" s="17" customFormat="1">
-      <c r="A5" s="21" t="s">
+      <c r="D8" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="17" customFormat="1">
+      <c r="A9" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="17" customFormat="1" ht="14" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="17" customFormat="1">
-      <c r="A7" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="17" customFormat="1">
-      <c r="A8" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="17" customFormat="1">
-      <c r="A9" s="21" t="s">
-        <v>356</v>
-      </c>
       <c r="B9" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1">
-      <c r="A10" s="21" t="s">
-        <v>307</v>
+      <c r="A10" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="17" customFormat="1">
       <c r="A11" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>322</v>
+        <v>185</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>319</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+        <v>367</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1">
       <c r="A12" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>180</v>
       </c>
+      <c r="D12" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="E12" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+        <v>367</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1">
-      <c r="A13" s="23" t="s">
-        <v>306</v>
+      <c r="A13" s="22" t="s">
+        <v>303</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>122</v>
-      </c>
       <c r="E13" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="E14" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1">
+      <c r="A15" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1">
+      <c r="A16" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1020" s="17" customFormat="1">
+      <c r="A17" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1020">
+      <c r="A18" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="17" customFormat="1">
-      <c r="A15" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1">
-      <c r="A16" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1020" s="17" customFormat="1">
-      <c r="A17" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1020">
-      <c r="A18" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>38</v>
+      <c r="D18" s="23" t="s">
+        <v>369</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -3095,16 +3098,16 @@
     </row>
     <row r="19" spans="1:1020" s="17" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="13"/>
@@ -3113,32 +3116,32 @@
     </row>
     <row r="20" spans="1:1020" s="14" customFormat="1">
       <c r="A20" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:1020" s="15" customFormat="1">
       <c r="A21" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -3147,16 +3150,16 @@
     </row>
     <row r="22" spans="1:1020" s="15" customFormat="1">
       <c r="A22" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="13"/>
@@ -3165,16 +3168,16 @@
     </row>
     <row r="23" spans="1:1020" s="15" customFormat="1">
       <c r="A23" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="13"/>
@@ -3183,16 +3186,16 @@
     </row>
     <row r="24" spans="1:1020" s="15" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="13"/>
@@ -3201,16 +3204,16 @@
     </row>
     <row r="25" spans="1:1020" s="15" customFormat="1">
       <c r="A25" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -3219,86 +3222,86 @@
     </row>
     <row r="26" spans="1:1020" s="14" customFormat="1">
       <c r="A26" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1020" s="14" customFormat="1">
       <c r="A27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="C27" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:1020" s="14" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1020" s="14" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1020" s="14" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:1020" s="14" customFormat="1">
       <c r="A31" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -3306,62 +3309,62 @@
     </row>
     <row r="32" spans="1:1020" s="14" customFormat="1">
       <c r="A32" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:1020" s="15" customFormat="1">
       <c r="A33" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:1020" s="14" customFormat="1">
       <c r="A34" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:1020" s="14" customFormat="1">
       <c r="A35" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>220</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
@@ -3370,7 +3373,7 @@
     </row>
     <row r="36" spans="1:1020">
       <c r="A36" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>28</v>
@@ -4400,39 +4403,39 @@
     </row>
     <row r="37" spans="1:1020" s="15" customFormat="1">
       <c r="A37" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>233</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:1020" s="15" customFormat="1">
       <c r="A38" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>211</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:1020" s="15" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>28</v>
@@ -4450,16 +4453,16 @@
     </row>
     <row r="40" spans="1:1020" s="14" customFormat="1">
       <c r="A40" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>242</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
@@ -4468,7 +4471,7 @@
     </row>
     <row r="41" spans="1:1020" s="14" customFormat="1">
       <c r="A41" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -4482,32 +4485,32 @@
     </row>
     <row r="42" spans="1:1020" s="14" customFormat="1">
       <c r="A42" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>244</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:1020" s="14" customFormat="1">
       <c r="A43" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
@@ -4516,7 +4519,7 @@
     </row>
     <row r="44" spans="1:1020" s="14" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>28</v>
@@ -4530,72 +4533,72 @@
     </row>
     <row r="45" spans="1:1020" s="14" customFormat="1">
       <c r="A45" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:1020" s="14" customFormat="1">
       <c r="A46" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:1020" s="14" customFormat="1">
       <c r="A47" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C47" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:1020" s="14" customFormat="1">
       <c r="A48" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:1020" s="15" customFormat="1">
       <c r="A49" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -4604,16 +4607,16 @@
     </row>
     <row r="50" spans="1:1020" s="15" customFormat="1">
       <c r="A50" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="13"/>
@@ -4622,16 +4625,16 @@
     </row>
     <row r="51" spans="1:1020" s="14" customFormat="1">
       <c r="A51" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
@@ -4640,16 +4643,16 @@
     </row>
     <row r="52" spans="1:1020" s="15" customFormat="1">
       <c r="A52" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="13"/>
@@ -4658,44 +4661,44 @@
     </row>
     <row r="53" spans="1:1020" s="14" customFormat="1">
       <c r="A53" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:1020" s="14" customFormat="1">
       <c r="A54" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:1020" s="14" customFormat="1">
       <c r="A55" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
@@ -4704,16 +4707,16 @@
     </row>
     <row r="56" spans="1:1020" s="14" customFormat="1">
       <c r="A56" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
@@ -4722,16 +4725,16 @@
     </row>
     <row r="57" spans="1:1020" s="14" customFormat="1">
       <c r="A57" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="16"/>
@@ -4740,30 +4743,30 @@
     </row>
     <row r="58" spans="1:1020" s="14" customFormat="1">
       <c r="A58" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:1020">
       <c r="A59" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -4772,16 +4775,16 @@
     </row>
     <row r="60" spans="1:1020">
       <c r="A60" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -4790,16 +4793,16 @@
     </row>
     <row r="61" spans="1:1020">
       <c r="A61" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
@@ -4808,16 +4811,16 @@
     </row>
     <row r="62" spans="1:1020">
       <c r="A62" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
@@ -5838,16 +5841,16 @@
     </row>
     <row r="63" spans="1:1020">
       <c r="A63" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -6868,16 +6871,16 @@
     </row>
     <row r="64" spans="1:1020">
       <c r="A64" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="13"/>
@@ -6886,74 +6889,74 @@
     </row>
     <row r="65" spans="1:1020" s="14" customFormat="1">
       <c r="A65" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:1020" s="14" customFormat="1">
       <c r="A66" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:1020" s="14" customFormat="1">
       <c r="A67" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:1020" s="14" customFormat="1">
       <c r="A68" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:1020" s="14" customFormat="1">
       <c r="A69" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
@@ -6962,16 +6965,16 @@
     </row>
     <row r="70" spans="1:1020" s="14" customFormat="1">
       <c r="A70" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
@@ -6980,30 +6983,30 @@
     </row>
     <row r="71" spans="1:1020" s="14" customFormat="1">
       <c r="A71" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:1020">
       <c r="A72" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
@@ -7012,16 +7015,16 @@
     </row>
     <row r="73" spans="1:1020">
       <c r="A73" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="16"/>
@@ -8042,16 +8045,16 @@
     </row>
     <row r="74" spans="1:1020">
       <c r="A74" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
@@ -8060,16 +8063,16 @@
     </row>
     <row r="75" spans="1:1020">
       <c r="A75" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
@@ -8078,16 +8081,16 @@
     </row>
     <row r="76" spans="1:1020">
       <c r="A76" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -8096,16 +8099,16 @@
     </row>
     <row r="77" spans="1:1020">
       <c r="A77" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
@@ -8114,16 +8117,16 @@
     </row>
     <row r="78" spans="1:1020">
       <c r="A78" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
@@ -9144,16 +9147,16 @@
     </row>
     <row r="79" spans="1:1020">
       <c r="A79" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
@@ -9226,25 +9229,25 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" t="s">
         <v>301</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>302</v>
-      </c>
-      <c r="E2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" t="s">
-        <v>305</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -9255,37 +9258,37 @@
     </row>
     <row r="3" spans="1:18" s="7" customFormat="1">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J3" t="s">
         <v>301</v>
       </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>302</v>
-      </c>
-      <c r="I3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J3" t="s">
-        <v>304</v>
-      </c>
-      <c r="K3" t="s">
-        <v>305</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -9297,132 +9300,132 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K4" t="s">
+        <v>300</v>
+      </c>
+      <c r="L4" t="s">
         <v>301</v>
       </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>302</v>
-      </c>
-      <c r="K4" t="s">
-        <v>303</v>
-      </c>
-      <c r="L4" t="s">
-        <v>304</v>
-      </c>
-      <c r="M4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
         <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
         <v>301</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>302</v>
-      </c>
-      <c r="E8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" t="s">
-        <v>305</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -9438,657 +9441,657 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J9" t="s">
         <v>301</v>
       </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>302</v>
-      </c>
-      <c r="I9" t="s">
-        <v>303</v>
-      </c>
-      <c r="J9" t="s">
-        <v>304</v>
-      </c>
-      <c r="K9" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K10" t="s">
+        <v>300</v>
+      </c>
+      <c r="L10" t="s">
         <v>301</v>
       </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>302</v>
-      </c>
-      <c r="K10" t="s">
-        <v>303</v>
-      </c>
-      <c r="L10" t="s">
-        <v>304</v>
-      </c>
-      <c r="M10" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="22" t="s">
-        <v>348</v>
+      <c r="A12" s="21" t="s">
+        <v>345</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
         <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" t="s">
         <v>234</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>235</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" t="s">
         <v>236</v>
       </c>
-      <c r="E14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>237</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>238</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>239</v>
-      </c>
-      <c r="I14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" t="s">
         <v>234</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>235</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" t="s">
         <v>236</v>
       </c>
-      <c r="E15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>237</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>238</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>239</v>
-      </c>
-      <c r="I15" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" t="s">
         <v>234</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>235</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" t="s">
         <v>236</v>
       </c>
-      <c r="E16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>237</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>238</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>239</v>
-      </c>
-      <c r="I16" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
         <v>115</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" t="s">
         <v>116</v>
       </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>117</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>118</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>87</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>88</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>90</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>91</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>92</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>93</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>94</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>95</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>96</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>97</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>98</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>99</v>
-      </c>
-      <c r="R19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>87</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>88</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>89</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>90</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>91</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>92</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>93</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>94</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>95</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>96</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>97</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>98</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>99</v>
-      </c>
-      <c r="R21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" t="s">
         <v>116</v>
       </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>117</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>118</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>119</v>
-      </c>
-      <c r="P23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>68</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>69</v>
-      </c>
-      <c r="F24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
         <v>86</v>
       </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>87</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>88</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>89</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>90</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>91</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>92</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>93</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>94</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>95</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>96</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>97</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>98</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>99</v>
-      </c>
-      <c r="R25" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
         <v>67</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>69</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
         <v>86</v>
       </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>87</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>88</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>89</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>90</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>91</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>92</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>93</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>94</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>95</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>96</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>97</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>98</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>99</v>
-      </c>
-      <c r="R27" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" t="s">
         <v>228</v>
-      </c>
-      <c r="C28" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -10165,10 +10168,10 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>16</v>
@@ -10205,7 +10208,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
@@ -10216,10 +10219,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -10251,10 +10254,10 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -10292,10 +10295,10 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -10312,10 +10315,10 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>16</v>
@@ -10329,10 +10332,10 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -10358,10 +10361,10 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -10392,7 +10395,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -10403,7 +10406,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>16</v>
@@ -10414,10 +10417,10 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -10449,10 +10452,10 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -10490,10 +10493,10 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -10510,10 +10513,10 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>16</v>
@@ -10527,10 +10530,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -10556,10 +10559,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -10567,10 +10570,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -10578,7 +10581,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>16</v>
@@ -10589,7 +10592,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>16</v>
@@ -10600,7 +10603,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>37</v>
@@ -10611,7 +10614,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>16</v>
@@ -10622,7 +10625,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>37</v>
@@ -10633,7 +10636,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>37</v>
@@ -10644,7 +10647,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>37</v>
@@ -10655,7 +10658,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>37</v>
@@ -10666,7 +10669,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>37</v>
@@ -10677,7 +10680,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>37</v>
@@ -10688,7 +10691,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>16</v>
@@ -10699,7 +10702,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>16</v>
@@ -10710,7 +10713,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>16</v>
@@ -10721,7 +10724,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>16</v>
@@ -10732,7 +10735,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>16</v>
@@ -10743,7 +10746,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>37</v>
@@ -10754,22 +10757,22 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
@@ -10783,7 +10786,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>16</v>
@@ -10794,7 +10797,7 @@
     </row>
     <row r="38" spans="1:18" s="7" customFormat="1">
       <c r="A38" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>37</v>
@@ -10818,22 +10821,22 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
@@ -10847,7 +10850,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>37</v>
@@ -10858,22 +10861,22 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
@@ -10887,7 +10890,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>16</v>
@@ -10898,7 +10901,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>36</v>
@@ -10909,10 +10912,10 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -10959,10 +10962,10 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -10991,10 +10994,10 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -11047,10 +11050,10 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -11079,10 +11082,10 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -11135,7 +11138,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>16</v>
@@ -11146,7 +11149,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>16</v>
@@ -11159,7 +11162,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>16</v>
@@ -11170,7 +11173,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>16</v>
@@ -11181,7 +11184,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>16</v>
@@ -11192,7 +11195,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>16</v>
@@ -11203,7 +11206,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>16</v>
@@ -11214,7 +11217,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>16</v>
@@ -11225,10 +11228,10 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -11275,10 +11278,10 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -11307,10 +11310,10 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -11363,7 +11366,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>16</v>
@@ -11374,10 +11377,10 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -11406,10 +11409,10 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -11462,7 +11465,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>16</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>16</v>
@@ -11484,7 +11487,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -11495,7 +11498,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>36</v>
@@ -11506,7 +11509,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>36</v>
@@ -11517,7 +11520,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B68" t="s">
         <v>36</v>
@@ -11525,7 +11528,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>16</v>
@@ -11538,7 +11541,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>16</v>
@@ -11549,7 +11552,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>16</v>
@@ -11560,7 +11563,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>16</v>
@@ -11571,7 +11574,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>16</v>
@@ -11582,7 +11585,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>16</v>
@@ -11593,7 +11596,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>16</v>
@@ -11604,7 +11607,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>36</v>
@@ -11615,7 +11618,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>36</v>
@@ -11626,7 +11629,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="10" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>37</v>
@@ -11696,25 +11699,25 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>102</v>
       </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -11730,10 +11733,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -11741,10 +11744,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -11752,150 +11755,150 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>102</v>
       </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>102</v>
       </c>
-      <c r="L6" t="s">
-        <v>103</v>
-      </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
         <v>101</v>
       </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>102</v>
       </c>
-      <c r="F9" t="s">
-        <v>103</v>
-      </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -11906,10 +11909,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -11917,10 +11920,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -11928,135 +11931,135 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
         <v>101</v>
       </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>102</v>
       </c>
-      <c r="J12" t="s">
-        <v>103</v>
-      </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>102</v>
       </c>
-      <c r="L13" t="s">
-        <v>103</v>
-      </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -12064,10 +12067,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -12075,10 +12078,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -12086,47 +12089,47 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -12134,76 +12137,76 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="7" customFormat="1">
       <c r="A25" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -12224,212 +12227,212 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="K26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" t="s">
         <v>101</v>
       </c>
-      <c r="H26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="O26" t="s">
         <v>102</v>
       </c>
-      <c r="K26" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" t="s">
-        <v>103</v>
-      </c>
-      <c r="M26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>102</v>
-      </c>
-      <c r="O26" t="s">
-        <v>103</v>
-      </c>
-      <c r="P26" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" t="s">
         <v>101</v>
       </c>
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="M28" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s">
         <v>101</v>
       </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="Q28" t="s">
         <v>102</v>
       </c>
-      <c r="M28" t="s">
-        <v>103</v>
-      </c>
-      <c r="N28" t="s">
-        <v>103</v>
-      </c>
-      <c r="O28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>102</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>103</v>
-      </c>
-      <c r="R28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
         <v>71</v>
       </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" t="s">
         <v>101</v>
       </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="M30" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="s">
         <v>101</v>
       </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s">
-        <v>101</v>
-      </c>
-      <c r="J30" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="Q30" t="s">
         <v>102</v>
       </c>
-      <c r="M30" t="s">
-        <v>103</v>
-      </c>
-      <c r="N30" t="s">
-        <v>103</v>
-      </c>
-      <c r="O30" t="s">
-        <v>72</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>102</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>103</v>
-      </c>
-      <c r="R30" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -12437,21 +12440,21 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -12459,236 +12462,236 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s">
         <v>101</v>
       </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="K37" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" t="s">
+        <v>102</v>
+      </c>
+      <c r="N37" t="s">
         <v>101</v>
       </c>
-      <c r="H37" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="O37" t="s">
         <v>102</v>
       </c>
-      <c r="K37" t="s">
-        <v>103</v>
-      </c>
-      <c r="L37" t="s">
-        <v>103</v>
-      </c>
-      <c r="M37" t="s">
-        <v>103</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>102</v>
-      </c>
-      <c r="O37" t="s">
-        <v>103</v>
-      </c>
-      <c r="P37" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="M39" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" t="s">
+        <v>102</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="s">
         <v>101</v>
       </c>
-      <c r="F39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J39" t="s">
-        <v>101</v>
-      </c>
-      <c r="K39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="Q39" t="s">
         <v>102</v>
       </c>
-      <c r="M39" t="s">
-        <v>103</v>
-      </c>
-      <c r="N39" t="s">
-        <v>103</v>
-      </c>
-      <c r="O39" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>102</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>103</v>
-      </c>
-      <c r="R39" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
         <v>71</v>
       </c>
-      <c r="D40" t="s">
-        <v>72</v>
-      </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41" t="s">
         <v>101</v>
       </c>
-      <c r="C41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="M41" t="s">
+        <v>102</v>
+      </c>
+      <c r="N41" t="s">
+        <v>102</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s">
         <v>101</v>
       </c>
-      <c r="F41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s">
-        <v>101</v>
-      </c>
-      <c r="J41" t="s">
-        <v>101</v>
-      </c>
-      <c r="K41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="Q41" t="s">
         <v>102</v>
       </c>
-      <c r="M41" t="s">
-        <v>103</v>
-      </c>
-      <c r="N41" t="s">
-        <v>103</v>
-      </c>
-      <c r="O41" t="s">
-        <v>72</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
         <v>102</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>103</v>
-      </c>
-      <c r="R41" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -12696,10 +12699,10 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -12707,21 +12710,21 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -12729,10 +12732,10 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -12740,10 +12743,10 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -12751,10 +12754,10 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -12778,8 +12781,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="K17:N17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
@@ -12812,453 +12815,453 @@
         <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" t="s">
         <v>313</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" t="s">
         <v>314</v>
-      </c>
-      <c r="E2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="K5" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="M6" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F10" t="s">
         <v>313</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" t="s">
         <v>314</v>
-      </c>
-      <c r="E10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F10" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" t="s">
-        <v>318</v>
-      </c>
-      <c r="H10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="K13" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="M14" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>326</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -13267,13 +13270,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>298</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>300</v>
+        <v>368</v>
+      </c>
+      <c r="B18" t="s">
+        <v>371</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -13440,551 +13443,551 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
         <v>159</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>160</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>161</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="K18" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
         <v>159</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>160</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>161</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="M19" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>59</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
       <c r="F24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -13992,159 +13995,159 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="F44" s="8"/>
     </row>
